--- a/Versuch7/datasets/sugar.xlsx
+++ b/Versuch7/datasets/sugar.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michele Calvanese\Uni\Grundpraktikum\Versuch7\datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{50D28A72-600E-4BEC-B8A0-3BEBED6B7E29}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{266A1F1D-B48F-4017-BCF3-E05572A7679A}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22296" windowHeight="8268" activeTab="1" xr2:uid="{6FB3F139-42FE-4D7A-811B-4AF99DA3128D}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
   <si>
     <t>vol</t>
   </si>
@@ -62,6 +62,12 @@
   </si>
   <si>
     <t>diam_err</t>
+  </si>
+  <si>
+    <t>l</t>
+  </si>
+  <si>
+    <t>l_err</t>
   </si>
 </sst>
 </file>
@@ -415,7 +421,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{635F251E-09BF-44F4-938B-CD2E9CF0540C}">
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -433,10 +441,10 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G1" t="s">
         <v>10</v>
@@ -459,7 +467,7 @@
         <v>2</v>
       </c>
       <c r="E2">
-        <f>A2/(G2^2)</f>
+        <f t="shared" ref="E2:E7" si="0">A2/(G2^2)</f>
         <v>0</v>
       </c>
       <c r="F2">
@@ -488,7 +496,7 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <f>A3/(G3^2)</f>
+        <f t="shared" si="0"/>
         <v>2.9814701629373448</v>
       </c>
       <c r="F3">
@@ -500,7 +508,7 @@
         <v>2.59</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H7" si="0">H2</f>
+        <f t="shared" ref="H3:H7" si="1">H2</f>
         <v>0.01</v>
       </c>
     </row>
@@ -516,23 +524,23 @@
         <v>19</v>
       </c>
       <c r="D4">
-        <f t="shared" ref="D4:D7" si="1">D3</f>
+        <f t="shared" ref="D4:D7" si="2">D3</f>
         <v>2</v>
       </c>
       <c r="E4">
-        <f>A4/(G4^2)</f>
+        <f t="shared" si="0"/>
         <v>5.9629403258746896</v>
       </c>
       <c r="F4">
-        <f t="shared" ref="F3:F7" si="2">SQRT((4*(A4*H4)^2+(G4*B4)^2)/G4^6)</f>
+        <f t="shared" ref="F4:F7" si="3">SQRT((4*(A4*H4)^2+(G4*B4)^2)/G4^6)</f>
         <v>0.15602286079185421</v>
       </c>
       <c r="G4">
-        <f t="shared" ref="G4:G7" si="3">G3</f>
+        <f t="shared" ref="G4:G7" si="4">G3</f>
         <v>2.59</v>
       </c>
       <c r="H4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.01</v>
       </c>
     </row>
@@ -541,30 +549,30 @@
         <v>60</v>
       </c>
       <c r="B5">
-        <f t="shared" ref="B5:B7" si="4">B4</f>
+        <f t="shared" ref="B5:B7" si="5">B4</f>
         <v>1</v>
       </c>
       <c r="C5">
         <v>28</v>
       </c>
       <c r="D5">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>8.9444104888120339</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="3"/>
+        <v>0.16429671607414922</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="4"/>
+        <v>2.59</v>
+      </c>
+      <c r="H5">
         <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="E5">
-        <f>A5/(G5^2)</f>
-        <v>8.9444104888120339</v>
-      </c>
-      <c r="F5">
-        <f t="shared" si="2"/>
-        <v>0.16429671607414922</v>
-      </c>
-      <c r="G5">
-        <f t="shared" si="3"/>
-        <v>2.59</v>
-      </c>
-      <c r="H5">
-        <f t="shared" si="0"/>
         <v>0.01</v>
       </c>
     </row>
@@ -573,30 +581,30 @@
         <v>80</v>
       </c>
       <c r="B6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="C6">
         <v>39</v>
       </c>
       <c r="D6">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>11.925880651749379</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="3"/>
+        <v>0.1752249978315166</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="4"/>
+        <v>2.59</v>
+      </c>
+      <c r="H6">
         <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="E6">
-        <f>A6/(G6^2)</f>
-        <v>11.925880651749379</v>
-      </c>
-      <c r="F6">
-        <f t="shared" si="2"/>
-        <v>0.1752249978315166</v>
-      </c>
-      <c r="G6">
-        <f t="shared" si="3"/>
-        <v>2.59</v>
-      </c>
-      <c r="H6">
-        <f t="shared" si="0"/>
         <v>0.01</v>
       </c>
     </row>
@@ -605,30 +613,30 @@
         <v>100</v>
       </c>
       <c r="B7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="C7">
         <v>48</v>
       </c>
       <c r="D7">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>14.907350814686724</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="3"/>
+        <v>0.18834622360586498</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="4"/>
+        <v>2.59</v>
+      </c>
+      <c r="H7">
         <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="E7">
-        <f>A7/(G7^2)</f>
-        <v>14.907350814686724</v>
-      </c>
-      <c r="F7">
-        <f t="shared" si="2"/>
-        <v>0.18834622360586498</v>
-      </c>
-      <c r="G7">
-        <f t="shared" si="3"/>
-        <v>2.59</v>
-      </c>
-      <c r="H7">
-        <f t="shared" si="0"/>
         <v>0.01</v>
       </c>
     </row>
@@ -642,7 +650,7 @@
   <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -808,7 +816,7 @@
         <v>7.9106012658227831</v>
       </c>
       <c r="I4">
-        <f t="shared" ref="I3:I7" si="5">C4/(2.59^2)</f>
+        <f t="shared" ref="I4:I7" si="5">C4/(2.59^2)</f>
         <v>15.056424322833591</v>
       </c>
       <c r="J4">
@@ -867,7 +875,7 @@
         <v>2.59</v>
       </c>
       <c r="L5">
-        <f t="shared" si="1"/>
+        <f>L4</f>
         <v>0.01</v>
       </c>
     </row>
@@ -914,7 +922,7 @@
         <v>2.59</v>
       </c>
       <c r="L6">
-        <f t="shared" si="1"/>
+        <f>L5</f>
         <v>0.01</v>
       </c>
     </row>
